--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -46,7 +46,10 @@
     <t>Pre Processing Data</t>
   </si>
   <si>
-    <t>Menunggu</t>
+    <t>Membuat Model CNN 1</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 2</t>
   </si>
 </sst>
 </file>
@@ -56,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -66,8 +69,12 @@
       <b/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +85,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,8 +127,8 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,12 +424,54 @@
       <c r="C4" s="3">
         <v>44486.0</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3">
+        <v>44494.0</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44494.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44495.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44495.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44494.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44495.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44495.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="18408" windowHeight="9335"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -46,33 +49,223 @@
     <t>Pre Processing Data</t>
   </si>
   <si>
-    <t>Menunggu</t>
+    <t>Membuat Model CNN 1</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 2</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 1 dengan Batch Normalization dan DropOut (RGB)</t>
+  </si>
+  <si>
+    <t>8 Oktober 2021</t>
+  </si>
+  <si>
+    <t>9 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 1 dengan Batch Normalization dan DropOut (GrayScale)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tahap Fitting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -80,9 +273,207 @@
         <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -96,41 +487,368 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -320,28 +1038,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.57"/>
-    <col customWidth="1" min="2" max="2" width="21.86"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="4" width="20.29"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="21.86"/>
+    <col min="1" max="1" width="71.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="20.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="21.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,18 +1083,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="C2" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="D2" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -381,18 +1103,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="C3" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="D3" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -401,25 +1123,108 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>44482.0</v>
+        <v>44482</v>
       </c>
       <c r="C4" s="3">
-        <v>44486.0</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>44486</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44494</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44494</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44495</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44495</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44494</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44495</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44495</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="18530" windowHeight="7210"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -46,33 +49,227 @@
     <t>Pre Processing Data</t>
   </si>
   <si>
-    <t>Menunggu</t>
+    <t>Membuat Model CNN 1</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 2</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 1 dengan Batch Normalization dan DropOut (RGB)</t>
+  </si>
+  <si>
+    <t>8 Oktober 2021</t>
+  </si>
+  <si>
+    <t>9 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Membuat Model CNN 1 dengan Batch Normalization dan DropOut (GrayScale)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tahap Fitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membuat Model CNN 2 dengan Batch Normalization dan DropOut </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -80,9 +277,207 @@
         <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -96,41 +491,377 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -320,28 +1051,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.57"/>
-    <col customWidth="1" min="2" max="2" width="21.86"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="4" width="20.29"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="21.86"/>
+    <col min="1" max="1" width="71.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21.8636363636364" customWidth="1"/>
+    <col min="3" max="3" width="20.7090909090909" customWidth="1"/>
+    <col min="4" max="4" width="20.2909090909091" customWidth="1"/>
+    <col min="5" max="5" width="21.7090909090909" customWidth="1"/>
+    <col min="6" max="6" width="21.8636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,18 +1096,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="C2" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="D2" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -381,18 +1116,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="C3" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="D3" s="3">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -401,25 +1136,125 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>44482.0</v>
+        <v>44482</v>
       </c>
       <c r="C4" s="3">
-        <v>44486.0</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>44486</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44494</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44494</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44495</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44495</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44494</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44495</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44495</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44478</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44477</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44478</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7210"/>
+    <workbookView windowWidth="18530" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -70,23 +70,27 @@
     <t>-</t>
   </si>
   <si>
-    <t>Tahap Fitting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Membuat Model CNN 2 dengan Batch Normalization dan DropOut </t>
+  </si>
+  <si>
+    <t>Membuat Model 1 CNN dengan Hyperparameter tuning</t>
+  </si>
+  <si>
+    <t>Membuat Model 2 CNN dengan Hyperparameter tuning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="d\ mmmm\ yyyy"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -113,9 +117,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,24 +153,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +224,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -214,51 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,43 +289,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,43 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,90 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +522,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +606,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -580,194 +623,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,13 +779,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,13 +794,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1060,16 +1067,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="71.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="21.8636363636364" customWidth="1"/>
+    <col min="2" max="2" width="15.8909090909091" customWidth="1"/>
     <col min="3" max="3" width="20.7090909090909" customWidth="1"/>
     <col min="4" max="4" width="20.2909090909091" customWidth="1"/>
     <col min="5" max="5" width="21.7090909090909" customWidth="1"/>
@@ -1233,12 +1240,12 @@
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>44477</v>
@@ -1252,6 +1259,57 @@
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44529</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44530</v>
+      </c>
+      <c r="D10" s="10">
+        <v>44530</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44529</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44530</v>
+      </c>
+      <c r="D11" s="10">
+        <v>44530</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
